--- a/mlb.xlsx
+++ b/mlb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvray\OneDrive\Documents\Web Development\NBA TEAMS\nba_socmed_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF802B9A-507D-466A-9865-04C6AA276389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6E168D-48B1-4808-9DB0-8A974290829E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5280" yWindow="1275" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -974,6 +974,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
